--- a/teaching/traditional_assets/database/data/hong_kong/hong_kong_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/hong_kong/hong_kong_insurance_prop_cas.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0747</v>
+        <v>0.0582</v>
       </c>
       <c r="G2">
-        <v>-0.2490974729241877</v>
+        <v>-0.3818827708703375</v>
       </c>
       <c r="H2">
-        <v>-0.2490974729241877</v>
+        <v>-0.3818827708703375</v>
       </c>
       <c r="I2">
-        <v>-0.2779783393501805</v>
+        <v>-0.3552397868561279</v>
       </c>
       <c r="J2">
-        <v>-0.2779783393501805</v>
+        <v>-0.3552397868561279</v>
       </c>
       <c r="K2">
-        <v>-15.8</v>
+        <v>-21.7</v>
       </c>
       <c r="L2">
-        <v>-0.2851985559566787</v>
+        <v>-0.3854351687388988</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>46.7</v>
+        <v>110.6</v>
       </c>
       <c r="V2">
-        <v>1.269021739130435</v>
+        <v>2.835897435897436</v>
       </c>
       <c r="W2">
-        <v>-0.2642140468227425</v>
+        <v>-0.3640939597315436</v>
       </c>
       <c r="X2">
-        <v>0.05504509734430717</v>
+        <v>0.06046991799701271</v>
       </c>
       <c r="Y2">
-        <v>-0.3192591441670497</v>
+        <v>-0.4245638777285563</v>
       </c>
       <c r="Z2">
-        <v>1.699386503067485</v>
+        <v>2.336099585062241</v>
       </c>
       <c r="AA2">
-        <v>-0.4723926380368098</v>
+        <v>-0.8298755186721993</v>
       </c>
       <c r="AB2">
-        <v>0.05041318855080292</v>
+        <v>0.04800324368620691</v>
       </c>
       <c r="AC2">
-        <v>-0.5228058265876128</v>
+        <v>-0.8778787623584062</v>
       </c>
       <c r="AD2">
-        <v>11.2</v>
+        <v>22.1</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>11.2</v>
+        <v>22.1</v>
       </c>
       <c r="AG2">
-        <v>-35.5</v>
+        <v>-88.5</v>
       </c>
       <c r="AH2">
-        <v>0.2333333333333333</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="AI2">
-        <v>0.1581920903954802</v>
+        <v>0.3708053691275168</v>
       </c>
       <c r="AJ2">
-        <v>-27.30769230769237</v>
+        <v>1.787878787878788</v>
       </c>
       <c r="AK2">
-        <v>-1.473029045643153</v>
+        <v>1.735294117647059</v>
       </c>
       <c r="AL2">
-        <v>0.224</v>
+        <v>0.33</v>
       </c>
       <c r="AM2">
-        <v>0.224</v>
+        <v>0.33</v>
       </c>
       <c r="AN2">
-        <v>-0.8682170542635658</v>
+        <v>-1.284883720930233</v>
       </c>
       <c r="AO2">
-        <v>-68.75</v>
+        <v>-60.6060606060606</v>
       </c>
       <c r="AP2">
-        <v>2.751937984496124</v>
+        <v>5.145348837209302</v>
       </c>
       <c r="AQ2">
-        <v>-68.75</v>
+        <v>-60.6060606060606</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0747</v>
+        <v>0.0582</v>
       </c>
       <c r="G3">
-        <v>-0.2490974729241877</v>
+        <v>-0.3818827708703375</v>
       </c>
       <c r="H3">
-        <v>-0.2490974729241877</v>
+        <v>-0.3818827708703375</v>
       </c>
       <c r="I3">
-        <v>-0.2779783393501805</v>
+        <v>-0.3552397868561279</v>
       </c>
       <c r="J3">
-        <v>-0.2779783393501805</v>
+        <v>-0.3552397868561279</v>
       </c>
       <c r="K3">
-        <v>-15.8</v>
+        <v>-21.7</v>
       </c>
       <c r="L3">
-        <v>-0.2851985559566787</v>
+        <v>-0.3854351687388988</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>46.7</v>
+        <v>110.6</v>
       </c>
       <c r="V3">
-        <v>1.269021739130435</v>
+        <v>2.835897435897436</v>
       </c>
       <c r="W3">
-        <v>-0.2642140468227425</v>
+        <v>-0.3640939597315436</v>
       </c>
       <c r="X3">
-        <v>0.05504509734430717</v>
+        <v>0.06046991799701271</v>
       </c>
       <c r="Y3">
-        <v>-0.3192591441670497</v>
+        <v>-0.4245638777285563</v>
       </c>
       <c r="Z3">
-        <v>1.699386503067485</v>
+        <v>2.336099585062241</v>
       </c>
       <c r="AA3">
-        <v>-0.4723926380368098</v>
+        <v>-0.8298755186721993</v>
       </c>
       <c r="AB3">
-        <v>0.05041318855080292</v>
+        <v>0.04800324368620691</v>
       </c>
       <c r="AC3">
-        <v>-0.5228058265876128</v>
+        <v>-0.8778787623584062</v>
       </c>
       <c r="AD3">
-        <v>11.2</v>
+        <v>22.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>11.2</v>
+        <v>22.1</v>
       </c>
       <c r="AG3">
-        <v>-35.5</v>
+        <v>-88.5</v>
       </c>
       <c r="AH3">
-        <v>0.2333333333333333</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="AI3">
-        <v>0.1581920903954802</v>
+        <v>0.3708053691275168</v>
       </c>
       <c r="AJ3">
-        <v>-27.30769230769237</v>
+        <v>1.787878787878788</v>
       </c>
       <c r="AK3">
-        <v>-1.473029045643153</v>
+        <v>1.735294117647059</v>
       </c>
       <c r="AL3">
-        <v>0.224</v>
+        <v>0.33</v>
       </c>
       <c r="AM3">
-        <v>0.224</v>
+        <v>0.33</v>
       </c>
       <c r="AN3">
-        <v>-0.8682170542635658</v>
+        <v>-1.284883720930233</v>
       </c>
       <c r="AO3">
-        <v>-68.75</v>
+        <v>-60.6060606060606</v>
       </c>
       <c r="AP3">
-        <v>2.751937984496124</v>
+        <v>5.145348837209302</v>
       </c>
       <c r="AQ3">
-        <v>-68.75</v>
+        <v>-60.6060606060606</v>
       </c>
     </row>
   </sheetData>
